--- a/company_functions.xlsx
+++ b/company_functions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>function_title</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>first_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>last_name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>person_company_number</t>
         </is>
@@ -468,20 +478,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
+          <t>SaNico DESMET</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>nicolas.desmet@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Nicolas</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Desmet</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -491,21 +511,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>!Nspire</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Zaakvoerder
 								(2)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Stijn</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Vantilt</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -515,12 +541,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Gilson</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Vertegenwoordiger van de BTW-eenheid</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>0891.796.026</t>
         </is>
@@ -534,20 +566,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Gilson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Vertegenwoordiger rechtspersoon</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Alain</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Gilson</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>0891.796.026</t>
         </is>
@@ -561,12 +599,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>ASSOCIATION DES COPROPRIETAIRES ATREBATES 87" à Etterbeek, rue des Atrébates 87</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Syndicus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>0784.353.579</t>
         </is>
@@ -580,12 +624,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>ASSOCIATION DES COPROPRIETAIRES DE LA RESIDENCE LOUIS BERTRAND, numéros 71/73". sise à La Louvière, rue Louis Bertra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Syndicus</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>0792.457.831</t>
         </is>
@@ -599,20 +649,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>ASSOCIATION DES COPROPRIETAIRES DE LA RESIDENCE LOUIS BERTRAND, numéros 71/73". sise à La Louvière, rue Louis Bertra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Vertegenwoordiger rechtspersoon</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Khadija</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Atlassi</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>0792.457.831</t>
         </is>
@@ -626,20 +682,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Yusuf Can</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Arinel</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -649,20 +711,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Pier Paolo</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Peracchino</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -672,20 +740,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Stavroula</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Piperaki</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -695,20 +769,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Florentine C</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Plikaar</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -718,20 +798,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>João Pedro</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Rangel Da Costa Martins</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -741,20 +827,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Alexandre</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Rauzy</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -764,20 +856,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>João Carlos</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Socha Pereira</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -787,20 +885,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Guy</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>T'hooft</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -810,20 +914,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Godelieve</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Van den Brande</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -833,20 +943,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Yves-Max</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Viton</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -856,20 +972,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Marc</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Wendling</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -879,12 +1001,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>ASSOCIATION DES COPROPRIETAIRES DE L'IMMEUBLE SIS A BRUXELLES, AVENUE LOUISE 366, 368 et 370" à Bruxelles, avenue Louise 368</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Syndicus</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>0403.359.949</t>
         </is>
@@ -898,20 +1026,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>ASSOCIATION DES COPROPRIETAIRES DE L'IMMEUBLE SIS A BRUXELLES, AVENUE LOUISE 366, 368 et 370" à Bruxelles, avenue Louise 368</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>Vertegenwoordiger rechtspersoon</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Olivier</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Reyé</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>0403.359.949</t>
         </is>
@@ -925,12 +1059,18 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>VERENIGING VAN MEDE-EIGENAARS GEBOUW EDELWEISS-FASE II EN III, HOEK BEVERHOEKSTRAAT EN DE OMMEGANGSTRAAT, zn TE 9770 KRUISHOUTEM</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>Syndicus</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>0414.769.723</t>
         </is>
@@ -944,12 +1084,18 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>ASSOCIATION DES COPROPRIETAIRES CITE DU SUREAU 7" à Bruxelles, rue cité du Sureau, 7</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>Syndicus</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>0466.236.834</t>
         </is>
@@ -963,12 +1109,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>MARCHAL-LAMBERT UNITÉ TVA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>Vertegenwoordiger van de BTW-eenheid</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>0681.757.768</t>
         </is>
@@ -982,20 +1134,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>MARCHAL-LAMBERT UNITÉ TVA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Vertegenwoordiger rechtspersoon</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Laurence</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Marchal</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>0681.757.768</t>
         </is>
@@ -1009,12 +1167,18 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>ASSOCIATION DES COPROPRIETAIRES DE LA RESIDENCE "Résidence Ines", Rue Général Leman 118 à 1040 Bruxelles</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>Syndicus</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>0782.273.227</t>
         </is>
@@ -1028,12 +1192,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>ABBAYE DU VAL-DIEU UNITE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>paul.clockers@skynet.be</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>Vertegenwoordiger van de BTW-eenheid</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>0407.771.766</t>
         </is>
@@ -1047,20 +1221,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>ABBAYE DU VAL-DIEU UNITE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>paul.clockers@skynet.be</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>Vertegenwoordiger rechtspersoon</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Emeline</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Gilliquet</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>0407.771.766</t>
         </is>
@@ -1074,20 +1258,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Stephanie</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Behaegels</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1097,20 +1287,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Guy</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Blancke</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1120,20 +1316,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Lien</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Deblaere</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1143,20 +1345,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Nathalie</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Declercq</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1166,20 +1374,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Jochen</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Degreef</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1189,20 +1403,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Fréderic</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Deprost</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1212,20 +1432,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>David</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Elgers</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1235,20 +1461,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Jean</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Lambrecht</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1258,20 +1490,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>Dorine</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Lemant</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1281,20 +1519,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>Etienne</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Pillaert</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1304,20 +1548,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>Claire</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Platteau</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1327,20 +1577,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>Angélique</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Rommelaere</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1350,20 +1606,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>Jens</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Ugille</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1373,20 +1635,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>Willy</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Ugille</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1396,20 +1664,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>Frederick</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Van Maele</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1419,20 +1693,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>Kristof</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Vandamme</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1442,20 +1722,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>Renaat</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Vandenbulcke</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1465,20 +1751,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>Meinert</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Vanneste</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1488,20 +1780,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>Eric</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Vanthournout</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1511,20 +1809,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Verbrugge</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1534,20 +1838,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>Ben</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Windels</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1557,20 +1867,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>Persoon belast met dagelijks bestuur</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Sonny</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Ghesquière</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1580,12 +1896,18 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
+          <t>ARCADES RED</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>0837.199.377</t>
         </is>
@@ -1599,20 +1921,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
+          <t>ARCADES RED</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>Gregory</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Giltay</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1622,20 +1950,26 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
+          <t>ARCADES RED</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>Maxime</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Hougardy</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1645,20 +1979,26 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>ARCADES RED</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>Vaste vertegenwoordiger</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>Xavier</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Knauf</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>0837.199.377</t>
         </is>
@@ -1672,20 +2012,26 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
+          <t>ASSOCIATES ENTREPRISES CONSULTANTS ACCOMPLISHMENT GROWTH ", en abrégé « AEC-AG »</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>Stéphane</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Thoen</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/company_functions.xlsx
+++ b/company_functions.xlsx
@@ -473,219 +473,223 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0762825519</t>
+          <t>0819262493</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SaNico DESMET</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>nicolas.desmet@hotmail.com</t>
-        </is>
-      </c>
+          <t>ASSOCIATION DES COPROPRIETAIRES DE L'IMMEUBLE SIS A BRUXELLES, AVENUE LOUISE 366, 368 et 370" à Bruxelles, avenue Louise 368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Nicolas</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Desmet</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>Syndicus</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0403.359.949</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0840749181</t>
+          <t>0819262493</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>!Nspire</t>
+          <t>ASSOCIATION DES COPROPRIETAIRES DE L'IMMEUBLE SIS A BRUXELLES, AVENUE LOUISE 366, 368 et 370" à Bruxelles, avenue Louise 368</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Zaakvoerder
-								(2)</t>
+          <t>Vertegenwoordiger rechtspersoon</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Stijn</t>
+          <t>Olivier</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vantilt</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>Reyé</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0403.359.949</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0655876386</t>
+          <t>0702988890</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gilson</t>
+          <t>ARCADES RED</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Vertegenwoordiger van de BTW-eenheid</t>
+          <t>Bestuurder</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0891.796.026</t>
+          <t>0837.199.377</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0655876386</t>
+          <t>0702988890</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gilson</t>
+          <t>ARCADES RED</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Vertegenwoordiger rechtspersoon</t>
+          <t>Bestuurder</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alain</t>
+          <t>Gregory</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gilson</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0891.796.026</t>
-        </is>
-      </c>
+          <t>Giltay</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0819544783</t>
+          <t>0702988890</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ASSOCIATION DES COPROPRIETAIRES ATREBATES 87" à Etterbeek, rue des Atrébates 87</t>
+          <t>ARCADES RED</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Syndicus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0784.353.579</t>
-        </is>
-      </c>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Maxime</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hougardy</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0644586972</t>
+          <t>0702988890</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ASSOCIATION DES COPROPRIETAIRES DE LA RESIDENCE LOUIS BERTRAND, numéros 71/73". sise à La Louvière, rue Louis Bertra</t>
+          <t>ARCADES RED</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Syndicus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+          <t>Vaste vertegenwoordiger</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Xavier</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Knauf</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0792.457.831</t>
+          <t>0837.199.377</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0644586972</t>
+          <t>0840749181</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ASSOCIATION DES COPROPRIETAIRES DE LA RESIDENCE LOUIS BERTRAND, numéros 71/73". sise à La Louvière, rue Louis Bertra</t>
+          <t>!Nspire</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Vertegenwoordiger rechtspersoon</t>
+          <t>Zaakvoerder
+								(2)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Khadija</t>
+          <t>Stijn</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Atlassi</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0792.457.831</t>
-        </is>
-      </c>
+          <t>Vantilt</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0762825519</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>SaNico DESMET</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>nicolas.desmet@hotmail.com</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Bestuurder</t>
@@ -693,12 +697,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Yusuf Can</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Arinel</t>
+          <t>Desmet</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -706,12 +710,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -722,12 +726,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pier Paolo</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Peracchino</t>
+          <t>Behaegels</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -735,12 +739,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -751,12 +755,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Stavroula</t>
+          <t>Guy</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Piperaki</t>
+          <t>Blancke</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -764,12 +768,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -780,12 +784,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Florentine C</t>
+          <t>Lien</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Plikaar</t>
+          <t>Deblaere</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -793,12 +797,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -809,12 +813,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>João Pedro</t>
+          <t>Nathalie</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rangel Da Costa Martins</t>
+          <t>Declercq</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -822,12 +826,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -838,12 +842,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Alexandre</t>
+          <t>Jochen</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rauzy</t>
+          <t>Degreef</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -851,12 +855,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -867,12 +871,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>João Carlos</t>
+          <t>Fréderic</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Socha Pereira</t>
+          <t>Deprost</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -880,12 +884,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -896,12 +900,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Guy</t>
+          <t>David</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>T'hooft</t>
+          <t>Elgers</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -909,12 +913,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -925,12 +929,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Godelieve</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Van den Brande</t>
+          <t>Lambrecht</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -938,12 +942,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -954,12 +958,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Yves-Max</t>
+          <t>Dorine</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Viton</t>
+          <t>Lemant</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -967,12 +971,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -983,12 +987,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Etienne</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Wendling</t>
+          <t>Pillaert</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -996,259 +1000,263 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0819262493</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ASSOCIATION DES COPROPRIETAIRES DE L'IMMEUBLE SIS A BRUXELLES, AVENUE LOUISE 366, 368 et 370" à Bruxelles, avenue Louise 368</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Syndicus</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0403.359.949</t>
-        </is>
-      </c>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Claire</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Platteau</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0819262493</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ASSOCIATION DES COPROPRIETAIRES DE L'IMMEUBLE SIS A BRUXELLES, AVENUE LOUISE 366, 368 et 370" à Bruxelles, avenue Louise 368</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Vertegenwoordiger rechtspersoon</t>
+          <t>Bestuurder</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Olivier</t>
+          <t>Angélique</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Reyé</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0403.359.949</t>
-        </is>
-      </c>
+          <t>Rommelaere</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0893264486</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VERENIGING VAN MEDE-EIGENAARS GEBOUW EDELWEISS-FASE II EN III, HOEK BEVERHOEKSTRAAT EN DE OMMEGANGSTRAAT, zn TE 9770 KRUISHOUTEM</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Syndicus</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0414.769.723</t>
-        </is>
-      </c>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Jens</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Ugille</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0818353762</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ASSOCIATION DES COPROPRIETAIRES CITE DU SUREAU 7" à Bruxelles, rue cité du Sureau, 7</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Syndicus</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0466.236.834</t>
-        </is>
-      </c>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Willy</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Ugille</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0715640462</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MARCHAL-LAMBERT UNITÉ TVA</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Vertegenwoordiger van de BTW-eenheid</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0681.757.768</t>
-        </is>
-      </c>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Frederick</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Van Maele</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0715640462</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MARCHAL-LAMBERT UNITÉ TVA</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Vertegenwoordiger rechtspersoon</t>
+          <t>Bestuurder</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Laurence</t>
+          <t>Kristof</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Marchal</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0681.757.768</t>
-        </is>
-      </c>
+          <t>Vandamme</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0818274776</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ASSOCIATION DES COPROPRIETAIRES DE LA RESIDENCE "Résidence Ines", Rue Général Leman 118 à 1040 Bruxelles</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Syndicus</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0782.273.227</t>
-        </is>
-      </c>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Renaat</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Vandenbulcke</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0544854641</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ABBAYE DU VAL-DIEU UNITE</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>paul.clockers@skynet.be</t>
-        </is>
-      </c>
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Vertegenwoordiger van de BTW-eenheid</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0407.771.766</t>
-        </is>
-      </c>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Meinert</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Vanneste</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0544854641</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ABBAYE DU VAL-DIEU UNITE</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>paul.clockers@skynet.be</t>
-        </is>
-      </c>
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Vertegenwoordiger rechtspersoon</t>
+          <t>Bestuurder</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Emeline</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gilliquet</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0407.771.766</t>
-        </is>
-      </c>
+          <t>Vanthournout</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1269,12 +1277,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Behaegels</t>
+          <t>Verbrugge</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1298,12 +1306,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Guy</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blancke</t>
+          <t>Windels</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1322,17 +1330,17 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
+          <t>Persoon belast met dagelijks bestuur</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Lien</t>
+          <t>Sonny</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Deblaere</t>
+          <t>Ghesquière</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1340,12 +1348,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0445911176</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ASSOCIATES ENTREPRISES CONSULTANTS ACCOMPLISHMENT GROWTH ", en abrégé « AEC-AG »</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1356,12 +1364,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Nathalie</t>
+          <t>Stéphane</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Declercq</t>
+          <t>Thoen</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1369,360 +1377,352 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0644586972</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ASSOCIATION DES COPROPRIETAIRES DE LA RESIDENCE LOUIS BERTRAND, numéros 71/73". sise à La Louvière, rue Louis Bertra</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Jochen</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Degreef</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>Syndicus</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0792.457.831</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0644586972</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ASSOCIATION DES COPROPRIETAIRES DE LA RESIDENCE LOUIS BERTRAND, numéros 71/73". sise à La Louvière, rue Louis Bertra</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
+          <t>Vertegenwoordiger rechtspersoon</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fréderic</t>
+          <t>Khadija</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Deprost</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>Atlassi</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0792.457.831</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0893264486</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>VERENIGING VAN MEDE-EIGENAARS GEBOUW EDELWEISS-FASE II EN III, HOEK BEVERHOEKSTRAAT EN DE OMMEGANGSTRAAT, zn TE 9770 KRUISHOUTEM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>David</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Elgers</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>Syndicus</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0414.769.723</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0544854641</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>ABBAYE DU VAL-DIEU UNITE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>paul.clockers@skynet.be</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Jean</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Lambrecht</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>Vertegenwoordiger van de BTW-eenheid</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0407.771.766</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0544854641</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>ABBAYE DU VAL-DIEU UNITE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>paul.clockers@skynet.be</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
+          <t>Vertegenwoordiger rechtspersoon</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Dorine</t>
+          <t>Emeline</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lemant</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>Gilliquet</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0407.771.766</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0715640462</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>MARCHAL-LAMBERT UNITÉ TVA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Etienne</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Pillaert</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>Vertegenwoordiger van de BTW-eenheid</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0681.757.768</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0715640462</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>MARCHAL-LAMBERT UNITÉ TVA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
+          <t>Vertegenwoordiger rechtspersoon</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Claire</t>
+          <t>Laurence</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Platteau</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>Marchal</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0681.757.768</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0818274776</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ASSOCIATION DES COPROPRIETAIRES DE LA RESIDENCE "Résidence Ines", Rue Général Leman 118 à 1040 Bruxelles</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Angélique</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Rommelaere</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>Syndicus</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0782.273.227</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0655876386</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>Gilson</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Jens</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Ugille</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>Vertegenwoordiger van de BTW-eenheid</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0891.796.026</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0655876386</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>Gilson</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
+          <t>Vertegenwoordiger rechtspersoon</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Willy</t>
+          <t>Alain</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ugille</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>Gilson</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0891.796.026</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0818353762</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ASSOCIATION DES COPROPRIETAIRES CITE DU SUREAU 7" à Bruxelles, rue cité du Sureau, 7</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Frederick</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Van Maele</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>Syndicus</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0466.236.834</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0819544783</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ASSOCIATION DES COPROPRIETAIRES ATREBATES 87" à Etterbeek, rue des Atrébates 87</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Kristof</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Vandamme</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>Syndicus</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0784.353.579</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Renaat</t>
+          <t>Yusuf Can</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vandenbulcke</t>
+          <t>Arinel</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1746,12 +1746,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1762,12 +1762,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Meinert</t>
+          <t>Pier Paolo</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vanneste</t>
+          <t>Peracchino</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1775,12 +1775,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Stavroula</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vanthournout</t>
+          <t>Piperaki</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1804,12 +1804,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1820,12 +1820,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Florentine C</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Verbrugge</t>
+          <t>Plikaar</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1833,12 +1833,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1849,12 +1849,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>João Pedro</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Windels</t>
+          <t>Rangel Da Costa Martins</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1862,28 +1862,28 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Persoon belast met dagelijks bestuur</t>
+          <t>Bestuurder</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sonny</t>
+          <t>Alexandre</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ghesquière</t>
+          <t>Rauzy</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -1891,12 +1891,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0702988890</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ARCADES RED</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1905,23 +1905,27 @@
           <t>Bestuurder</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0837.199.377</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>João Carlos</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Socha Pereira</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0702988890</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ARCADES RED</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1932,12 +1936,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Gregory</t>
+          <t>Guy</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Giltay</t>
+          <t>T'hooft</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -1945,12 +1949,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0702988890</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ARCADES RED</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1961,12 +1965,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Maxime</t>
+          <t>Godelieve</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hougardy</t>
+          <t>Van den Brande</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -1974,45 +1978,41 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0702988890</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ARCADES RED</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Vaste vertegenwoordiger</t>
+          <t>Bestuurder</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Xavier</t>
+          <t>Yves-Max</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Knauf</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0837.199.377</t>
-        </is>
-      </c>
+          <t>Viton</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0445911176</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ASSOCIATES ENTREPRISES CONSULTANTS ACCOMPLISHMENT GROWTH ", en abrégé « AEC-AG »</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Stéphane</t>
+          <t>Marc</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Thoen</t>
+          <t>Wendling</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>

--- a/company_functions.xlsx
+++ b/company_functions.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0819262493</t>
+          <t>0818353762</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASSOCIATION DES COPROPRIETAIRES DE L'IMMEUBLE SIS A BRUXELLES, AVENUE LOUISE 366, 368 et 370" à Bruxelles, avenue Louise 368</t>
+          <t>ASSOCIATION DES COPROPRIETAIRES CITE DU SUREAU 7" à Bruxelles, rue cité du Sureau, 7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -491,52 +491,44 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0403.359.949</t>
+          <t>0466.236.834</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0819262493</t>
+          <t>0893264486</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASSOCIATION DES COPROPRIETAIRES DE L'IMMEUBLE SIS A BRUXELLES, AVENUE LOUISE 366, 368 et 370" à Bruxelles, avenue Louise 368</t>
+          <t>VERENIGING VAN MEDE-EIGENAARS GEBOUW EDELWEISS-FASE II EN III, HOEK BEVERHOEKSTRAAT EN DE OMMEGANGSTRAAT, zn TE 9770 KRUISHOUTEM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Vertegenwoordiger rechtspersoon</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Olivier</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Reyé</t>
-        </is>
-      </c>
+          <t>Syndicus</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0403.359.949</t>
+          <t>0414.769.723</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0702988890</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARCADES RED</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -545,23 +537,27 @@
           <t>Bestuurder</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0837.199.377</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Behaegels</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0702988890</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARCADES RED</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -572,12 +568,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gregory</t>
+          <t>Guy</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Giltay</t>
+          <t>Blancke</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -585,12 +581,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0702988890</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ARCADES RED</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -601,12 +597,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Maxime</t>
+          <t>Lien</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hougardy</t>
+          <t>Deblaere</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -614,62 +610,57 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0702988890</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ARCADES RED</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Vaste vertegenwoordiger</t>
+          <t>Bestuurder</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Xavier</t>
+          <t>Nathalie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knauf</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0837.199.377</t>
-        </is>
-      </c>
+          <t>Declercq</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0840749181</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>!Nspire</t>
+          <t>!MPULS MENEN-WERVIK</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Zaakvoerder
-								(2)</t>
+          <t>Bestuurder</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Stijn</t>
+          <t>Jochen</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vantilt</t>
+          <t>Degreef</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -677,19 +668,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0762825519</t>
+          <t>0405501174</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SaNico DESMET</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>nicolas.desmet@hotmail.com</t>
-        </is>
-      </c>
+          <t>!MPULS MENEN-WERVIK</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>Bestuurder</t>
@@ -697,12 +684,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nicolas</t>
+          <t>Fréderic</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Desmet</t>
+          <t>Deprost</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -726,12 +713,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>David</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Behaegels</t>
+          <t>Elgers</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -755,12 +742,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Guy</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blancke</t>
+          <t>Lambrecht</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -784,12 +771,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lien</t>
+          <t>Dorine</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Deblaere</t>
+          <t>Lemant</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -813,12 +800,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Nathalie</t>
+          <t>Etienne</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Declercq</t>
+          <t>Pillaert</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -842,12 +829,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Jochen</t>
+          <t>Claire</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Degreef</t>
+          <t>Platteau</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -871,12 +858,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fréderic</t>
+          <t>Angélique</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Deprost</t>
+          <t>Rommelaere</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -900,12 +887,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Jens</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Elgers</t>
+          <t>Ugille</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -929,12 +916,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Willy</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lambrecht</t>
+          <t>Ugille</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -958,12 +945,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dorine</t>
+          <t>Frederick</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lemant</t>
+          <t>Van Maele</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -987,12 +974,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Etienne</t>
+          <t>Kristof</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Pillaert</t>
+          <t>Vandamme</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1016,12 +1003,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Claire</t>
+          <t>Renaat</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Platteau</t>
+          <t>Vandenbulcke</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1045,12 +1032,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Angélique</t>
+          <t>Meinert</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rommelaere</t>
+          <t>Vanneste</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1074,12 +1061,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Jens</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ugille</t>
+          <t>Vanthournout</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1103,12 +1090,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Willy</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ugille</t>
+          <t>Verbrugge</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1132,12 +1119,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Frederick</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Van Maele</t>
+          <t>Windels</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1156,17 +1143,17 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
+          <t>Persoon belast met dagelijks bestuur</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Kristof</t>
+          <t>Sonny</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vandamme</t>
+          <t>Ghesquière</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1174,12 +1161,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1190,12 +1177,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Renaat</t>
+          <t>Yusuf Can</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vandenbulcke</t>
+          <t>Arinel</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1203,12 +1190,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1219,12 +1206,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Meinert</t>
+          <t>Pier Paolo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vanneste</t>
+          <t>Peracchino</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1232,12 +1219,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1248,12 +1235,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Stavroula</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vanthournout</t>
+          <t>Piperaki</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1261,12 +1248,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1277,12 +1264,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Florentine C</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Verbrugge</t>
+          <t>Plikaar</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1290,12 +1277,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1306,12 +1293,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>João Pedro</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Windels</t>
+          <t>Rangel Da Costa Martins</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1319,28 +1306,28 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0405501174</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>!MPULS MENEN-WERVIK</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Persoon belast met dagelijks bestuur</t>
+          <t>Bestuurder</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sonny</t>
+          <t>Alexandre</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ghesquière</t>
+          <t>Rauzy</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1348,12 +1335,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0445911176</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ASSOCIATES ENTREPRISES CONSULTANTS ACCOMPLISHMENT GROWTH ", en abrégé « AEC-AG »</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1364,12 +1351,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Stéphane</t>
+          <t>João Carlos</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Thoen</t>
+          <t>Socha Pereira</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1377,174 +1364,174 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0644586972</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASSOCIATION DES COPROPRIETAIRES DE LA RESIDENCE LOUIS BERTRAND, numéros 71/73". sise à La Louvière, rue Louis Bertra</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Syndicus</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0792.457.831</t>
-        </is>
-      </c>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Guy</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>T'hooft</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0644586972</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ASSOCIATION DES COPROPRIETAIRES DE LA RESIDENCE LOUIS BERTRAND, numéros 71/73". sise à La Louvière, rue Louis Bertra</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Vertegenwoordiger rechtspersoon</t>
+          <t>Bestuurder</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Khadija</t>
+          <t>Godelieve</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Atlassi</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0792.457.831</t>
-        </is>
-      </c>
+          <t>Van den Brande</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0893264486</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>VERENIGING VAN MEDE-EIGENAARS GEBOUW EDELWEISS-FASE II EN III, HOEK BEVERHOEKSTRAAT EN DE OMMEGANGSTRAAT, zn TE 9770 KRUISHOUTEM</t>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Syndicus</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0414.769.723</t>
-        </is>
-      </c>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Yves-Max</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Viton</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0544854641</t>
+          <t>0682447458</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ABBAYE DU VAL-DIEU UNITE</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>paul.clockers@skynet.be</t>
-        </is>
-      </c>
+          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Vertegenwoordiger van de BTW-eenheid</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0407.771.766</t>
-        </is>
-      </c>
+          <t>Bestuurder</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Marc</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Wendling</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0544854641</t>
+          <t>0655876386</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ABBAYE DU VAL-DIEU UNITE</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>paul.clockers@skynet.be</t>
-        </is>
-      </c>
+          <t>Gilson</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Vertegenwoordiger rechtspersoon</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Emeline</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Gilliquet</t>
-        </is>
-      </c>
+          <t>Vertegenwoordiger van de BTW-eenheid</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0407.771.766</t>
+          <t>0891.796.026</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0715640462</t>
+          <t>0655876386</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MARCHAL-LAMBERT UNITÉ TVA</t>
+          <t>Gilson</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Vertegenwoordiger van de BTW-eenheid</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+          <t>Vertegenwoordiger rechtspersoon</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Gilson</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0681.757.768</t>
+          <t>0891.796.026</t>
         </is>
       </c>
     </row>
@@ -1562,19 +1549,11 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Vertegenwoordiger rechtspersoon</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Laurence</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Marchal</t>
-        </is>
-      </c>
+          <t>Vertegenwoordiger van de BTW-eenheid</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>0681.757.768</t>
@@ -1584,40 +1563,52 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0818274776</t>
+          <t>0715640462</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASSOCIATION DES COPROPRIETAIRES DE LA RESIDENCE "Résidence Ines", Rue Général Leman 118 à 1040 Bruxelles</t>
+          <t>MARCHAL-LAMBERT UNITÉ TVA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Syndicus</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+          <t>Vertegenwoordiger rechtspersoon</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Laurence</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Marchal</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0782.273.227</t>
+          <t>0681.757.768</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0655876386</t>
+          <t>0544854641</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Gilson</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>ABBAYE DU VAL-DIEU UNITE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>paul.clockers@skynet.be</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>Vertegenwoordiger van de BTW-eenheid</t>
@@ -1627,22 +1618,26 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0891.796.026</t>
+          <t>0407.771.766</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0655876386</t>
+          <t>0544854641</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gilson</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>ABBAYE DU VAL-DIEU UNITE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>paul.clockers@skynet.be</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>Vertegenwoordiger rechtspersoon</t>
@@ -1650,29 +1645,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Alain</t>
+          <t>Emeline</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gilson</t>
+          <t>Gilliquet</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0891.796.026</t>
+          <t>0407.771.766</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0818353762</t>
+          <t>0819262493</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASSOCIATION DES COPROPRIETAIRES CITE DU SUREAU 7" à Bruxelles, rue cité du Sureau, 7</t>
+          <t>ASSOCIATION DES COPROPRIETAIRES DE L'IMMEUBLE SIS A BRUXELLES, AVENUE LOUISE 366, 368 et 370" à Bruxelles, avenue Louise 368</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1685,147 +1680,152 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0466.236.834</t>
+          <t>0403.359.949</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0819544783</t>
+          <t>0819262493</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ASSOCIATION DES COPROPRIETAIRES ATREBATES 87" à Etterbeek, rue des Atrébates 87</t>
+          <t>ASSOCIATION DES COPROPRIETAIRES DE L'IMMEUBLE SIS A BRUXELLES, AVENUE LOUISE 366, 368 et 370" à Bruxelles, avenue Louise 368</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Syndicus</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+          <t>Vertegenwoordiger rechtspersoon</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Olivier</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Reyé</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0784.353.579</t>
+          <t>0403.359.949</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0819544783</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>ASSOCIATION DES COPROPRIETAIRES ATREBATES 87" à Etterbeek, rue des Atrébates 87</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Yusuf Can</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Arinel</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>Syndicus</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0784.353.579</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0644586972</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>ASSOCIATION DES COPROPRIETAIRES DE LA RESIDENCE LOUIS BERTRAND, numéros 71/73". sise à La Louvière, rue Louis Bertra</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Pier Paolo</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Peracchino</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>Syndicus</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0792.457.831</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0644586972</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>ASSOCIATION DES COPROPRIETAIRES DE LA RESIDENCE LOUIS BERTRAND, numéros 71/73". sise à La Louvière, rue Louis Bertra</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
+          <t>Vertegenwoordiger rechtspersoon</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Stavroula</t>
+          <t>Khadija</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Piperaki</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>Atlassi</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0792.457.831</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0840749181</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>!Nspire</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
+          <t>Zaakvoerder
+								(2)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Florentine C</t>
+          <t>Stijn</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Plikaar</t>
+          <t>Vantilt</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1833,12 +1833,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0702988890</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>ARCADES RED</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1847,27 +1847,23 @@
           <t>Bestuurder</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>João Pedro</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Rangel Da Costa Martins</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0837.199.377</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0702988890</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>ARCADES RED</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1878,12 +1874,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Alexandre</t>
+          <t>Gregory</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rauzy</t>
+          <t>Giltay</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -1891,12 +1887,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0702988890</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>ARCADES RED</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1907,12 +1903,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>João Carlos</t>
+          <t>Maxime</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Socha Pereira</t>
+          <t>Hougardy</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -1920,44 +1916,52 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0702988890</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>ARCADES RED</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
+          <t>Vaste vertegenwoordiger</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Guy</t>
+          <t>Xavier</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>T'hooft</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>Knauf</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0837.199.377</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0762825519</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>SaNico DESMET</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>nicolas.desmet@hotmail.com</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>Bestuurder</t>
@@ -1965,12 +1969,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Godelieve</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Van den Brande</t>
+          <t>Desmet</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -1978,12 +1982,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0445911176</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>ASSOCIATES ENTREPRISES CONSULTANTS ACCOMPLISHMENT GROWTH ", en abrégé « AEC-AG »</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1994,12 +1998,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Yves-Max</t>
+          <t>Stéphane</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Viton</t>
+          <t>Thoen</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2007,31 +2011,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0682447458</t>
+          <t>0818274776</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ALLIANCE MACONNIQUE EUROPEENNE-EUROPEAN MASONIC ALLIANCE</t>
+          <t>ASSOCIATION DES COPROPRIETAIRES DE LA RESIDENCE "Résidence Ines", Rue Général Leman 118 à 1040 Bruxelles</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Bestuurder</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Marc</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Wendling</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>Syndicus</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0782.273.227</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
